--- a/Documentação/Sprint 4/Dashboard - Scrum - Sprint 4.xlsx
+++ b/Documentação/Sprint 4/Dashboard - Scrum - Sprint 4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEF7015-8394-4A71-BFB1-25A4B2A57DF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFC9119-A82F-487F-8B0D-2C823418D3FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Roteiro" sheetId="3" r:id="rId1"/>
@@ -19,10 +19,19 @@
     <definedName name="Resultado">DadosDoRoteiro[Resultado]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Dados do Roteiro'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -252,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -752,10 +761,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -839,9 +848,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -851,55 +857,58 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="20% - Ênfase1" xfId="24" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="25" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="26" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="11" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Cor1" xfId="24" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Cor1" xfId="25" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Cor1" xfId="26" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="16" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="18" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="17" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="23" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Célula Ligada" xfId="17" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cor1" xfId="23" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="11" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="14" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="12" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Moeda" xfId="8" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Moeda [0]" xfId="9" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Neutro" xfId="13" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="47" xr:uid="{4459719E-C63E-4F79-8431-702264412897}"/>
     <cellStyle name="Nota" xfId="20" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentagem" xfId="10" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="12" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Percentagem" xfId="10" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="15" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Separador de milhares [0]" xfId="7" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="19" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="21" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Verificar Célula" xfId="18" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="6" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
@@ -1724,7 +1733,7 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -1946,10 +1955,10 @@
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ", DadosDoRoteiro[[#This Row],[Atribuído a]])</f>
         <v>Update Javadocs (14/03 - Responsável: Caroline</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2276,10 +2285,10 @@
       <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2294,10 +2303,10 @@
       <c r="D31" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2312,10 +2321,10 @@
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2330,20 +2339,20 @@
       <c r="D33" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2376,8 +2385,8 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,7 +2656,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f t="array" ref="B13">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B13)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B13))))&amp;CHAR(10),"")</f>
         <v xml:space="preserve">UC 11 - Documentação (01/03 e 03/03) - Responsável: Caroline 
@@ -2669,7 +2678,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f t="array" ref="B14">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B14)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B14))))&amp;CHAR(10),"")</f>
         <v xml:space="preserve">UC 12 - Responsável: Marta 
@@ -2863,7 +2872,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="array" ref="B23">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B23)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B23))))&amp;CHAR(10),"")</f>
         <v xml:space="preserve">WS - Ligação à BD - Login/Logout (08-03) - Responsável: Bárbara 
@@ -2920,7 +2929,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f t="array" ref="B26">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B26)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B26))))&amp;CHAR(10),"")</f>
         <v xml:space="preserve">Algoritmo de match (anúncios elegíveis), Code cleanup (11/03) - Responsável: Bárbara 
@@ -2939,7 +2948,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f t="array" ref="B27">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B27)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B27))))&amp;CHAR(10),"")</f>
         <v xml:space="preserve">Filtro tarefas - fix, Classificacao - fix (12/03) - Responsável: Bárbara 
@@ -2958,7 +2967,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f t="array" ref="B28">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B28)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B28))))&amp;CHAR(10),"")</f>
         <v xml:space="preserve">Login com enter, anúncios elegíveis, filtro tarefas - fixed (13/03) - Responsável: Bárbara 
